--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subha\RoboPhantoms 2023\FTC_2023\Communication_Outreach_Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA594E-DB0F-4FFF-9C41-64719CC18A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944D34A-D869-404B-AA74-ECFC4616FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -139,9 +128,6 @@
     <t>Event Registration</t>
   </si>
   <si>
-    <t>Scoring Elements</t>
-  </si>
-  <si>
     <t>At minimum, teams should plan to purchase a couple of scoring elements for the seasons game to practice with prior to competitions. Teams may also opt to purchase a full or partial field with scoring elements (if they have additional space/budget. See “Optional Expenses” Section).</t>
   </si>
   <si>
@@ -188,9 +174,6 @@
   </si>
   <si>
     <t>Fundraising</t>
-  </si>
-  <si>
-    <t>Potential Optional Expenses</t>
   </si>
   <si>
     <r>
@@ -260,9 +243,6 @@
     <t>Actual Amt.</t>
   </si>
   <si>
-    <t xml:space="preserve">IBM </t>
-  </si>
-  <si>
     <t>Sponsorship from IBM.</t>
   </si>
   <si>
@@ -270,6 +250,18 @@
   </si>
   <si>
     <t>Rookie teams will need to purchase a Control Hub.</t>
+  </si>
+  <si>
+    <t>Connectors, Wires, Locktight, Surgical tubing, Compliant wheels, Servo motor, Servo programmer, Servo block</t>
+  </si>
+  <si>
+    <t>Game Set Expenses</t>
+  </si>
+  <si>
+    <t>IBM grant only for purchases from FIRST</t>
+  </si>
+  <si>
+    <t>Available Funds for Purchase from FIRST only</t>
   </si>
 </sst>
 </file>
@@ -279,7 +271,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -605,6 +597,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,52 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,50 +1046,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="72.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="47" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.109375" style="4" customWidth="1"/>
-    <col min="6" max="9" width="9.109375" style="4"/>
+    <col min="1" max="1" width="72.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14" style="35" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1015625" style="4" customWidth="1"/>
+    <col min="6" max="9" width="9.1015625" style="4"/>
     <col min="10" max="10" width="12" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="4"/>
+    <col min="11" max="16384" width="9.1015625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1107,21 +1099,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1130,61 +1122,61 @@
       </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18">
         <v>940.35</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="28">
         <v>940.35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="18">
         <v>453.98</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="28">
         <v>453.98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="49.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="40"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1193,14 +1185,14 @@
       </c>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="18">
         <v>181</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="28">
         <v>180.95</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1211,12 +1203,12 @@
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="18"/>
-      <c r="C12" s="40"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1225,12 +1217,12 @@
       </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1239,69 +1231,73 @@
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="40"/>
+    <row r="14" spans="1:10" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="18">
+        <v>313.92</v>
+      </c>
+      <c r="C14" s="28">
+        <v>313.92</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="12"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="40"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="2"/>
       <c r="E15" s="12"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="16" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="16">
         <f>SUM(B6:B16)</f>
-        <v>1575.33</v>
-      </c>
-      <c r="C17" s="41">
+        <v>1889.25</v>
+      </c>
+      <c r="C17" s="29">
         <f>SUM(C6:C16)</f>
-        <v>1575.28</v>
+        <v>1889.2</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>60</v>
+      <c r="C19" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -1310,108 +1306,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="18">
         <v>650</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="26">
         <v>650.05999999999995</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="18">
         <v>1200</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="26">
         <v>1200</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="18">
         <v>1800</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="26">
         <v>1800</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="38"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="38"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="38"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="16">
-        <f>SUM(B21:B26)</f>
-        <v>3650</v>
-      </c>
-      <c r="C27" s="41">
+        <f>SUM(B22:B26)</f>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="29">
         <f>SUM(C21:C26)</f>
         <v>3650.06</v>
       </c>
@@ -1420,23 +1416,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -1446,169 +1442,180 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="39">
+        <v>39</v>
+      </c>
+      <c r="B31" s="27">
         <v>556.78</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="30">
         <v>556.78</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="18"/>
-      <c r="C32" s="51"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="51"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="51"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="44">
+        <v>44</v>
+      </c>
+      <c r="B35" s="32">
         <f>SUM(B31:B34)</f>
         <v>556.78</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="31">
         <f>SUM(C31:C34)</f>
         <v>556.78</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="50"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="17">
         <f>B17</f>
-        <v>1575.33</v>
-      </c>
-      <c r="C38" s="52">
+        <v>1889.25</v>
+      </c>
+      <c r="C38" s="40">
         <f>C17</f>
-        <v>1575.28</v>
+        <v>1889.2</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="17">
         <f>B27</f>
-        <v>3650</v>
-      </c>
-      <c r="C39" s="38">
+        <v>3000</v>
+      </c>
+      <c r="C39" s="26">
         <f>C27</f>
         <v>3650.06</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="46">
+        <v>65</v>
+      </c>
+      <c r="B40" s="17">
+        <v>650</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="34">
         <f>B35</f>
         <v>556.78</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C41" s="40">
         <f>C35</f>
         <v>556.78</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="45">
-        <f>B39-(B38+B40)</f>
-        <v>1517.8900000000003</v>
-      </c>
-      <c r="C41" s="53">
-        <f>C39-(C38+C40)</f>
-        <v>1518</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="33">
+        <f>B39-(B38+B41)</f>
+        <v>553.97000000000025</v>
+      </c>
+      <c r="C42" s="41">
+        <f>C39-(C38+C41)</f>
+        <v>1204.08</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>63</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1644,7 +1651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944D34A-D869-404B-AA74-ECFC4616FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F19A9-7DA9-4D79-A2C0-82EE0357FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Available Funds for Purchase from FIRST only</t>
+  </si>
+  <si>
+    <t>PVC Pipes, elbow joints, T-joints, PVC Cement for field Perimeter</t>
+  </si>
+  <si>
+    <t>Game Mats</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -678,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1470,33 +1479,33 @@
     </row>
     <row r="32" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B32" s="54">
+        <v>129.71</v>
+      </c>
+      <c r="C32" s="30">
+        <v>129.71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="B33" s="54">
+        <v>113.1</v>
+      </c>
+      <c r="C33" s="30">
+        <v>113.1</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="39"/>
@@ -1504,117 +1513,145 @@
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="21" t="s">
+    <row r="37" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="32">
-        <f>SUM(B31:B34)</f>
-        <v>556.78</v>
-      </c>
-      <c r="C35" s="31">
-        <f>SUM(C31:C34)</f>
-        <v>556.78</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+      <c r="B37" s="32">
+        <f>SUM(B31:B36)</f>
+        <v>799.59</v>
+      </c>
+      <c r="C37" s="31">
+        <f>SUM(C31:C36)</f>
+        <v>799.59</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B40" s="17">
         <f>B17</f>
         <v>1889.25</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C40" s="40">
         <f>C17</f>
         <v>1889.2</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B41" s="17">
         <f>B27</f>
         <v>3000</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C41" s="26">
         <f>C27</f>
         <v>3650.06</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="17">
-        <v>650</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="34">
-        <f>B35</f>
-        <v>556.78</v>
-      </c>
-      <c r="C41" s="40">
-        <f>C35</f>
-        <v>556.78</v>
-      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
+        <v>650.05999999999995</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="34">
+        <f>B37</f>
+        <v>799.59</v>
+      </c>
+      <c r="C43" s="40">
+        <f>C37</f>
+        <v>799.59</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="33">
-        <f>B39-(B38+B41)</f>
-        <v>553.97000000000025</v>
-      </c>
-      <c r="C42" s="41">
-        <f>C39-(C38+C41)</f>
-        <v>1204.08</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="2" t="s">
+      <c r="B44" s="33">
+        <f>B41-(B40+B43)</f>
+        <v>311.15999999999985</v>
+      </c>
+      <c r="C44" s="41">
+        <f>C41-(C40+C43)</f>
+        <v>961.27</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1624,7 +1661,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F19A9-7DA9-4D79-A2C0-82EE0357FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8FB4E-F8CF-4181-8194-C71000E0DBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Game Mats</t>
+  </si>
+  <si>
+    <t>Parts for Prototyping</t>
   </si>
 </sst>
 </file>
@@ -649,6 +652,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1074,22 +1077,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
@@ -1255,8 +1258,12 @@
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="18">
+        <v>151.16</v>
+      </c>
       <c r="C15" s="28"/>
       <c r="D15" s="2"/>
       <c r="E15" s="12"/>
@@ -1280,7 +1287,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B6:B16)</f>
-        <v>1889.25</v>
+        <v>2040.41</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C6:C16)</f>
@@ -1292,11 +1299,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
@@ -1384,7 +1391,7 @@
       <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
@@ -1395,7 +1402,7 @@
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
@@ -1406,7 +1413,7 @@
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8" t="s">
@@ -1426,13 +1433,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
@@ -1481,7 +1488,7 @@
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="42">
         <v>129.71</v>
       </c>
       <c r="C32" s="30">
@@ -1494,7 +1501,7 @@
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="42">
         <v>113.1</v>
       </c>
       <c r="C33" s="30">
@@ -1560,11 +1567,11 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
@@ -1581,7 +1588,7 @@
       </c>
       <c r="B40" s="17">
         <f>B17</f>
-        <v>1889.25</v>
+        <v>2040.41</v>
       </c>
       <c r="C40" s="40">
         <f>C17</f>
@@ -1639,7 +1646,7 @@
       </c>
       <c r="B44" s="33">
         <f>B41-(B40+B43)</f>
-        <v>311.15999999999985</v>
+        <v>160</v>
       </c>
       <c r="C44" s="41">
         <f>C41-(C40+C43)</f>

--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8FB4E-F8CF-4181-8194-C71000E0DBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F9E785-E733-4F5C-B33E-0B89F2B43D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Parts for Prototyping</t>
+  </si>
+  <si>
+    <t>Extra Battery, Servo Adpater, Servo Extension</t>
+  </si>
+  <si>
+    <t>Expansion Hub</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1269,263 +1275,266 @@
       <c r="E15" s="12"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="20">
+        <v>289.62</v>
+      </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="12"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="20">
+        <v>61.3</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="s">
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16">
-        <f>SUM(B6:B16)</f>
-        <v>2040.41</v>
-      </c>
-      <c r="C17" s="29">
-        <f>SUM(C6:C16)</f>
+      <c r="B18" s="16">
+        <f>SUM(B6:B17)</f>
+        <v>2391.3300000000004</v>
+      </c>
+      <c r="C18" s="29">
+        <f>SUM(C6:C17)</f>
         <v>1889.2</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B22" s="18">
         <v>650</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C22" s="26">
         <v>650.05999999999995</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1200</v>
-      </c>
-      <c r="C22" s="26">
-        <v>1200</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="18">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C23" s="26">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1800</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1800</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="26"/>
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="26"/>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="48"/>
-    </row>
-    <row r="27" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="16">
-        <f>SUM(B22:B26)</f>
+      <c r="B28" s="16">
+        <f>SUM(B23:B27)</f>
         <v>3000</v>
       </c>
-      <c r="C27" s="29">
-        <f>SUM(C21:C26)</f>
+      <c r="C28" s="29">
+        <f>SUM(C22:C27)</f>
         <v>3650.06</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="49" t="s">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B32" s="27">
         <v>556.78</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C32" s="30">
         <v>556.78</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="42">
-        <v>129.71</v>
-      </c>
-      <c r="C32" s="30">
-        <v>129.71</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="42">
-        <v>113.1</v>
+        <v>129.71</v>
       </c>
       <c r="C33" s="30">
-        <v>113.1</v>
+        <v>129.71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B34" s="42">
+        <v>113.1</v>
+      </c>
+      <c r="C34" s="30">
+        <v>113.1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="39"/>
@@ -1533,12 +1542,12 @@
         <v>10</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="39"/>
@@ -1546,119 +1555,132 @@
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="21" t="s">
+    <row r="38" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="32">
-        <f>SUM(B31:B36)</f>
+      <c r="B38" s="32">
+        <f>SUM(B32:B37)</f>
         <v>799.59</v>
       </c>
-      <c r="C37" s="31">
-        <f>SUM(C31:C36)</f>
+      <c r="C38" s="31">
+        <f>SUM(C32:C37)</f>
         <v>799.59</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-    </row>
     <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="17">
-        <f>B17</f>
-        <v>2040.41</v>
-      </c>
-      <c r="C40" s="40">
-        <f>C17</f>
-        <v>1889.2</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B41" s="17">
-        <f>B27</f>
-        <v>3000</v>
-      </c>
-      <c r="C41" s="26">
-        <f>C27</f>
-        <v>3650.06</v>
+        <f>B18</f>
+        <v>2391.3300000000004</v>
+      </c>
+      <c r="C41" s="40">
+        <f>C18</f>
+        <v>1889.2</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B42" s="17">
-        <v>0</v>
+        <f>B28</f>
+        <v>3000</v>
       </c>
       <c r="C42" s="26">
-        <v>650.05999999999995</v>
+        <f>C28</f>
+        <v>3650.06</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="34">
-        <f>B37</f>
-        <v>799.59</v>
-      </c>
-      <c r="C43" s="40">
-        <f>C37</f>
-        <v>799.59</v>
+        <v>65</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26">
+        <v>650.05999999999995</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="34">
+        <f>B38</f>
+        <v>799.59</v>
+      </c>
+      <c r="C44" s="40">
+        <f>C38</f>
+        <v>799.59</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="33">
-        <f>B41-(B40+B43)</f>
-        <v>160</v>
-      </c>
-      <c r="C44" s="41">
-        <f>C41-(C40+C43)</f>
+      <c r="B45" s="33">
+        <f>B42-(B41+B44)</f>
+        <v>-190.92000000000053</v>
+      </c>
+      <c r="C45" s="41">
+        <f>C42-(C41+C44)</f>
         <v>961.27</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="2" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1666,10 +1688,10 @@
   <mergeCells count="6">
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F9E785-E733-4F5C-B33E-0B89F2B43D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F99BD-80D6-4933-88FB-2C4DE4BAB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Sponsorship from IBM.</t>
   </si>
   <si>
-    <t>Updated 10.22.2023</t>
-  </si>
-  <si>
     <t>Rookie teams will need to purchase a Control Hub.</t>
   </si>
   <si>
@@ -277,6 +274,15 @@
   </si>
   <si>
     <t>Expansion Hub</t>
+  </si>
+  <si>
+    <t>Mat tapes</t>
+  </si>
+  <si>
+    <t>Mailing the cheque for registration</t>
+  </si>
+  <si>
+    <t>Updated 11.11.2023</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1154,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="24"/>
     </row>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="14" spans="1:10" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="18">
         <v>313.92</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="18">
         <v>151.16</v>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="20">
         <v>289.62</v>
@@ -1289,7 +1295,7 @@
     </row>
     <row r="17" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="20">
         <v>61.3</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="18">
         <v>650</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="42">
         <v>129.71</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="42">
         <v>113.1</v>
@@ -1534,154 +1540,178 @@
     </row>
     <row r="35" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B35" s="42">
+        <v>12.8</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+      <c r="B36" s="42">
+        <v>5</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B37" s="18">
+        <v>95.26</v>
+      </c>
       <c r="C37" s="39"/>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="21" t="s">
+    <row r="40" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="32">
-        <f>SUM(B32:B37)</f>
+      <c r="B40" s="32">
+        <f>SUM(B32:B39)</f>
+        <v>912.65</v>
+      </c>
+      <c r="C40" s="31">
+        <f>SUM(C32:C39)</f>
         <v>799.59</v>
       </c>
-      <c r="C38" s="31">
-        <f>SUM(C32:C37)</f>
-        <v>799.59</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B43" s="17">
         <f>B18</f>
         <v>2391.3300000000004</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C43" s="40">
         <f>C18</f>
         <v>1889.2</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B44" s="17">
         <f>B28</f>
         <v>3000</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C44" s="26">
         <f>C28</f>
         <v>3650.06</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="17">
-        <v>0</v>
-      </c>
-      <c r="C43" s="26">
-        <v>650.05999999999995</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="34">
-        <f>B38</f>
-        <v>799.59</v>
-      </c>
-      <c r="C44" s="40">
-        <f>C38</f>
-        <v>799.59</v>
-      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0</v>
+      </c>
+      <c r="C45" s="26">
+        <v>650.05999999999995</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="34">
+        <f>B40</f>
+        <v>912.65</v>
+      </c>
+      <c r="C46" s="40">
+        <f>C40</f>
+        <v>799.59</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="33">
-        <f>B42-(B41+B44)</f>
-        <v>-190.92000000000053</v>
-      </c>
-      <c r="C45" s="41">
-        <f>C42-(C41+C44)</f>
+      <c r="B47" s="33">
+        <f>B44-(B43+B46)</f>
+        <v>-303.98000000000047</v>
+      </c>
+      <c r="C47" s="41">
+        <f>C44-(C43+C46)</f>
         <v>961.27</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="2" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="4" t="s">
-        <v>60</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1720,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Communication_Outreach_Marketing/2023-2024-budget.xlsx
+++ b/Communication_Outreach_Marketing/2023-2024-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F99BD-80D6-4933-88FB-2C4DE4BAB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCDE3A-9DDE-4E60-AA6C-2CC23056BFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Budget Amt.</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Updated 11.11.2023</t>
+  </si>
+  <si>
+    <t>gobuilda parts</t>
+  </si>
+  <si>
+    <t>gobuild parts gears</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1293,424 +1299,448 @@
       <c r="E16" s="12"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="20">
+        <v>11.64</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="12"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="20">
+        <v>122.8</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="12"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B19" s="20">
         <v>61.3</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="2" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15" t="s">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16">
-        <f>SUM(B6:B17)</f>
-        <v>2391.3300000000004</v>
-      </c>
-      <c r="C18" s="29">
-        <f>SUM(C6:C17)</f>
+      <c r="B20" s="16">
+        <f>SUM(B6:B19)</f>
+        <v>2525.7700000000004</v>
+      </c>
+      <c r="C20" s="29">
+        <f>SUM(C6:C19)</f>
         <v>1889.2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C22" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="18">
-        <v>650</v>
-      </c>
-      <c r="C22" s="26">
-        <v>650.05999999999995</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="18">
-        <v>1200</v>
-      </c>
-      <c r="C23" s="26">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="18">
+        <v>650</v>
+      </c>
+      <c r="C24" s="26">
+        <v>650.05999999999995</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B25" s="18">
+        <v>1200</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1200</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="18">
         <v>1800</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C26" s="26">
         <v>1800</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="26"/>
       <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="48"/>
-    </row>
-    <row r="28" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="16">
-        <f>SUM(B23:B27)</f>
+      <c r="B30" s="16">
+        <f>SUM(B25:B29)</f>
         <v>3000</v>
       </c>
-      <c r="C28" s="29">
-        <f>SUM(C22:C27)</f>
+      <c r="C30" s="29">
+        <f>SUM(C24:C29)</f>
         <v>3650.06</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="49" t="s">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="13" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C32" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="27">
-        <v>556.78</v>
-      </c>
-      <c r="C32" s="30">
-        <v>556.78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="42">
-        <v>129.71</v>
-      </c>
-      <c r="C33" s="30">
-        <v>129.71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="42">
-        <v>113.1</v>
+        <v>39</v>
+      </c>
+      <c r="B34" s="27">
+        <v>556.78</v>
       </c>
       <c r="C34" s="30">
-        <v>113.1</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="12"/>
+        <v>556.78</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" s="42">
-        <v>12.8</v>
-      </c>
-      <c r="C35" s="30"/>
+        <v>129.71</v>
+      </c>
+      <c r="C35" s="30">
+        <v>129.71</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" s="42">
-        <v>5</v>
-      </c>
-      <c r="C36" s="30"/>
+        <v>113.1</v>
+      </c>
+      <c r="C36" s="30">
+        <v>113.1</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="18">
-        <v>95.26</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B37" s="42">
+        <v>12.8</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+      <c r="B38" s="42">
+        <v>5</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B39" s="18">
+        <v>95.26</v>
+      </c>
       <c r="C39" s="39"/>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="61.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="21" t="s">
+    <row r="42" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="32">
-        <f>SUM(B32:B39)</f>
+      <c r="B42" s="32">
+        <f>SUM(B34:B41)</f>
         <v>912.65</v>
       </c>
-      <c r="C40" s="31">
-        <f>SUM(C32:C39)</f>
+      <c r="C42" s="31">
+        <f>SUM(C34:C41)</f>
         <v>799.59</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="17">
-        <f>B18</f>
-        <v>2391.3300000000004</v>
-      </c>
-      <c r="C43" s="40">
-        <f>C18</f>
-        <v>1889.2</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="17">
-        <f>B28</f>
-        <v>3000</v>
-      </c>
-      <c r="C44" s="26">
-        <f>C28</f>
-        <v>3650.06</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B45" s="17">
-        <v>0</v>
-      </c>
-      <c r="C45" s="26">
-        <v>650.05999999999995</v>
+        <f>B20</f>
+        <v>2525.7700000000004</v>
+      </c>
+      <c r="C45" s="40">
+        <f>C20</f>
+        <v>1889.2</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="34">
-        <f>B40</f>
-        <v>912.65</v>
-      </c>
-      <c r="C46" s="40">
-        <f>C40</f>
-        <v>799.59</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="17">
+        <f>B30</f>
+        <v>3000</v>
+      </c>
+      <c r="C46" s="26">
+        <f>C30</f>
+        <v>3650.06</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0</v>
+      </c>
+      <c r="C47" s="26">
+        <v>650.05999999999995</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="34">
+        <f>B42</f>
+        <v>912.65</v>
+      </c>
+      <c r="C48" s="40">
+        <f>C42</f>
+        <v>799.59</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="27.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="33">
-        <f>B44-(B43+B46)</f>
-        <v>-303.98000000000047</v>
-      </c>
-      <c r="C47" s="41">
-        <f>C44-(C43+C46)</f>
+      <c r="B49" s="33">
+        <f>B46-(B45+B48)</f>
+        <v>-438.42000000000053</v>
+      </c>
+      <c r="C49" s="41">
+        <f>C46-(C45+C48)</f>
         <v>961.27</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="2" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A50" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1718,10 +1748,10 @@
   <mergeCells count="6">
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
